--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Serping1-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Serping1-Selp.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.921572</v>
+        <v>7.649422333333334</v>
       </c>
       <c r="H2">
-        <v>35.764716</v>
+        <v>22.948267</v>
       </c>
       <c r="I2">
-        <v>0.006971694289596158</v>
+        <v>0.004484559810904267</v>
       </c>
       <c r="J2">
-        <v>0.006971694289596159</v>
+        <v>0.004484559810904268</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.450162</v>
+        <v>1.343359</v>
       </c>
       <c r="N2">
-        <v>79.350486</v>
+        <v>4.030077</v>
       </c>
       <c r="O2">
-        <v>0.9821351879331711</v>
+        <v>0.736296379391111</v>
       </c>
       <c r="P2">
-        <v>0.9821351879331711</v>
+        <v>0.7362963793911109</v>
       </c>
       <c r="Q2">
-        <v>315.327510694664</v>
+        <v>10.27592033628433</v>
       </c>
       <c r="R2">
-        <v>2837.947596251976</v>
+        <v>92.48328302655901</v>
       </c>
       <c r="S2">
-        <v>0.006847146281325139</v>
+        <v>0.003301965151931698</v>
       </c>
       <c r="T2">
-        <v>0.00684714628132514</v>
+        <v>0.003301965151931698</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.921572</v>
+        <v>7.649422333333334</v>
       </c>
       <c r="H3">
-        <v>35.764716</v>
+        <v>22.948267</v>
       </c>
       <c r="I3">
-        <v>0.006971694289596158</v>
+        <v>0.004484559810904267</v>
       </c>
       <c r="J3">
-        <v>0.006971694289596159</v>
+        <v>0.004484559810904268</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.965802</v>
       </c>
       <c r="O3">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="P3">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="Q3">
-        <v>3.837959360248</v>
+        <v>2.462609129459334</v>
       </c>
       <c r="R3">
-        <v>34.541634242232</v>
+        <v>22.163482165134</v>
       </c>
       <c r="S3">
-        <v>8.333896748655554E-05</v>
+        <v>0.0007913110711447788</v>
       </c>
       <c r="T3">
-        <v>8.333896748655557E-05</v>
+        <v>0.000791311071144779</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.921572</v>
+        <v>7.649422333333334</v>
       </c>
       <c r="H4">
-        <v>35.764716</v>
+        <v>22.948267</v>
       </c>
       <c r="I4">
-        <v>0.006971694289596158</v>
+        <v>0.004484559810904267</v>
       </c>
       <c r="J4">
-        <v>0.006971694289596159</v>
+        <v>0.004484559810904268</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.477565</v>
       </c>
       <c r="O4">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="P4">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="Q4">
-        <v>1.897775177393333</v>
+        <v>1.217698792206111</v>
       </c>
       <c r="R4">
-        <v>17.07997659654</v>
+        <v>10.959289129855</v>
       </c>
       <c r="S4">
-        <v>4.120904078446401E-05</v>
+        <v>0.0003912835878277911</v>
       </c>
       <c r="T4">
-        <v>4.120904078446401E-05</v>
+        <v>0.0003912835878277912</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4550.859374</v>
       </c>
       <c r="I5">
-        <v>0.8871089682487887</v>
+        <v>0.8893308176045429</v>
       </c>
       <c r="J5">
-        <v>0.8871089682487888</v>
+        <v>0.889330817604543</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.450162</v>
+        <v>1.343359</v>
       </c>
       <c r="N5">
-        <v>79.350486</v>
+        <v>4.030077</v>
       </c>
       <c r="O5">
-        <v>0.9821351879331711</v>
+        <v>0.736296379391111</v>
       </c>
       <c r="P5">
-        <v>0.9821351879331711</v>
+        <v>0.7362963793911109</v>
       </c>
       <c r="Q5">
-        <v>40123.65589383953</v>
+        <v>2037.812632599089</v>
       </c>
       <c r="R5">
-        <v>361112.9030445557</v>
+        <v>18340.3136933918</v>
       </c>
       <c r="S5">
-        <v>0.8712609332482256</v>
+        <v>0.6548110610831614</v>
       </c>
       <c r="T5">
-        <v>0.8712609332482257</v>
+        <v>0.6548110610831614</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4550.859374</v>
       </c>
       <c r="I6">
-        <v>0.8871089682487887</v>
+        <v>0.8893308176045429</v>
       </c>
       <c r="J6">
-        <v>0.8871089682487888</v>
+        <v>0.889330817604543</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.965802</v>
       </c>
       <c r="O6">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="P6">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="Q6">
         <v>488.3587872364386</v>
@@ -818,10 +818,10 @@
         <v>4395.229085127948</v>
       </c>
       <c r="S6">
-        <v>0.01060441585515938</v>
+        <v>0.1569245035308852</v>
       </c>
       <c r="T6">
-        <v>0.01060441585515939</v>
+        <v>0.1569245035308853</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4550.859374</v>
       </c>
       <c r="I7">
-        <v>0.8871089682487887</v>
+        <v>0.8893308176045429</v>
       </c>
       <c r="J7">
-        <v>0.8871089682487888</v>
+        <v>0.889330817604543</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.477565</v>
       </c>
       <c r="O7">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="P7">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="Q7">
         <v>241.4812396604789</v>
@@ -880,10 +880,10 @@
         <v>2173.33115694431</v>
       </c>
       <c r="S7">
-        <v>0.005243619145403708</v>
+        <v>0.07759525299049622</v>
       </c>
       <c r="T7">
-        <v>0.005243619145403709</v>
+        <v>0.07759525299049622</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>543.365051</v>
       </c>
       <c r="I8">
-        <v>0.1059193374616151</v>
+        <v>0.1061846225845528</v>
       </c>
       <c r="J8">
-        <v>0.1059193374616151</v>
+        <v>0.1061846225845528</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.450162</v>
+        <v>1.343359</v>
       </c>
       <c r="N8">
-        <v>79.350486</v>
+        <v>4.030077</v>
       </c>
       <c r="O8">
-        <v>0.9821351879331711</v>
+        <v>0.736296379391111</v>
       </c>
       <c r="P8">
-        <v>0.9821351879331711</v>
+        <v>0.7362963793911109</v>
       </c>
       <c r="Q8">
-        <v>4790.697874696088</v>
+        <v>243.3114438487697</v>
       </c>
       <c r="R8">
-        <v>43116.28087226479</v>
+        <v>2189.802994638927</v>
       </c>
       <c r="S8">
-        <v>0.1040271084036203</v>
+        <v>0.07818335315601782</v>
       </c>
       <c r="T8">
-        <v>0.1040271084036203</v>
+        <v>0.07818335315601782</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>543.365051</v>
       </c>
       <c r="I9">
-        <v>0.1059193374616151</v>
+        <v>0.1061846225845528</v>
       </c>
       <c r="J9">
-        <v>0.1059193374616151</v>
+        <v>0.1061846225845528</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>0.965802</v>
       </c>
       <c r="O9">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="P9">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="Q9">
         <v>58.30922810954466</v>
@@ -1004,10 +1004,10 @@
         <v>524.783052985902</v>
       </c>
       <c r="S9">
-        <v>0.001266149640853281</v>
+        <v>0.01873652509487742</v>
       </c>
       <c r="T9">
-        <v>0.001266149640853282</v>
+        <v>0.01873652509487742</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>543.365051</v>
       </c>
       <c r="I10">
-        <v>0.1059193374616151</v>
+        <v>0.1061846225845528</v>
       </c>
       <c r="J10">
-        <v>0.1059193374616151</v>
+        <v>0.1061846225845528</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,10 +1054,10 @@
         <v>0.477565</v>
       </c>
       <c r="O10">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="P10">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="Q10">
         <v>28.83245895342389</v>
@@ -1066,10 +1066,10 @@
         <v>259.492130580815</v>
       </c>
       <c r="S10">
-        <v>0.0006260794171415023</v>
+        <v>0.009264744333657557</v>
       </c>
       <c r="T10">
-        <v>0.0006260794171415024</v>
+        <v>0.009264744333657558</v>
       </c>
     </row>
   </sheetData>
